--- a/ecommerce/testData/TestData.xlsx
+++ b/ecommerce/testData/TestData.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Sheet3" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -20,6 +21,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>expectedErroMessage</t>
+  </si>
+  <si>
     <t>jah@gmail.com</t>
   </si>
   <si>
@@ -32,16 +36,25 @@
     <t>xyz@gmail.com</t>
   </si>
   <si>
+    <t>xyz</t>
+  </si>
+  <si>
     <t>hello</t>
   </si>
   <si>
-    <t>xyz</t>
+    <t>There is 1 error</t>
   </si>
   <si>
     <t>jggg@gmail.com</t>
   </si>
   <si>
+    <t>Hi3345</t>
+  </si>
+  <si>
     <t>asdf@gmail.com</t>
+  </si>
+  <si>
+    <t>H1234</t>
   </si>
 </sst>
 </file>
@@ -113,6 +126,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -122,7 +139,67 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="20.57"/>
     <col customWidth="1" min="4" max="4" width="65.86"/>
   </cols>
   <sheetData>
@@ -133,37 +210,45 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
   </sheetData>
@@ -171,7 +256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -191,15 +276,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
